--- a/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
+++ b/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1 Questions" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="313">
   <si>
-    <t xml:space="preserve">what do you like todo for fun?</t>
+    <t xml:space="preserve">what do you like to do for fun?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Que te gusta hacer para divertirte?</t>
@@ -1177,8 +1177,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1956,7 +1956,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
+++ b/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
@@ -5,16 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 Questions" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="2 Questions" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="3 Questions" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="4 Questions" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="5 Questions" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="6 Questions" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="7 Questions" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1175,10 +1171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1352,6 +1348,336 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1370,182 +1696,513 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1564,789 +2221,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.11"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.03"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.81"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.42"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
+++ b/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 Questions" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="314">
   <si>
     <t xml:space="preserve">what do you like to do for fun?</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve">wɑt du ju laɪk todo fɔr fʌn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
     <t xml:space="preserve">what kind of music do you like?</t>
@@ -1035,12 +1038,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1171,17 +1178,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41"/>
   </cols>
   <sheetData>
@@ -1195,489 +1202,618 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1696,513 +1832,642 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2221,194 +2486,242 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>310</v>
+      <c r="A16" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
+++ b/src/main/resources/excel/1 Preguntas Simples Fluidez.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1 Questions" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,21 +22,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="314">
-  <si>
-    <t xml:space="preserve">what do you like to do for fun?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Que te gusta hacer para divertirte?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wɑt du ju laɪk todo fɔr fʌn?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="624">
+  <si>
+    <t xml:space="preserve">What do you like to do for fun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué te gusta hacer para divertirte?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt du ju laɪk tu du fɔr fʌn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love reading books and hiking in nature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me encanta leer libros y hacer caminatas en la naturaleza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ lʌv ˈrɛdɪŋ bʊks ænd ˈhaɪkɪŋ ɪn ˈneɪʧər.</t>
   </si>
   <si>
     <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
-    <t xml:space="preserve">what kind of music do you like?</t>
+    <t xml:space="preserve">What kind of music do you like?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Qué tipo de música te gusta?</t>
@@ -45,25 +54,52 @@
     <t xml:space="preserve">wɑt kaɪnd ʌv ˈmjuzɪk du ju laɪk?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you have any pets?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tienes mascotas?</t>
+    <t xml:space="preserve">I enjoy a bit of everything, but mostly indie and rock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disfruto un poco de todo, pero sobre todo indie y rock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɛnˈʤɔɪ ə bɪt ʌv ˈɛvriˌθɪŋ, bʌt ˈmoʊstli ˈɪndi ænd rɑk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any pets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tienes alguna mascota?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju hæv ˈɛni pɛts?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's your favorite kind of food?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cual es tu tipo de comida preferida?</t>
+    <t xml:space="preserve">Yes, I have a cat named Whiskers and a dog named Buddy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, tengo un gato llamado Whiskers y un perro llamado Buddy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ hæv ə kæt neɪmd ˈwɪskərz ænd ə dɔɡ neɪmd ˈbʌdi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite kind of food?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es tu tipo de comida favorita?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts jʊər ˈfeɪvərɪt kaɪnd ʌv fud?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's your favorite sport?</t>
+    <t xml:space="preserve">I'm really into Italian cuisine, especially pasta dishes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me gusta mucho la cocina italiana, especialmente los platos de pasta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈrɪli ˈɪntu ɪˈtæljən kwɪˈzin, əˈspɛʃli ˈpɑstə ˈdɪʃəz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite sport?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuál es tu deporte favorito?</t>
@@ -72,16 +108,34 @@
     <t xml:space="preserve">wʌts jʊər ˈfeɪvərɪt spɔrt?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you a night owl?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿eres un ave nocturna?</t>
+    <t xml:space="preserve">I'm a big fan of soccer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy un gran fanático del fútbol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ə bɪɡ fæn ʌv ˈsɑkər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you a night owl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Eres un ave nocturna?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju ə naɪt aʊl?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you have any siblings?</t>
+    <t xml:space="preserve">Definitely, I feel more productive and creative at night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitivamente, me siento más productivo y creativo por la noche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈdɛfənətli, aɪ fil mɔr prəˈdʌktɪv ænd kriˈeɪtɪv æt naɪt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any siblings?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tienes hermanos?</t>
@@ -90,16 +144,34 @@
     <t xml:space="preserve">du ju hæv ˈɛni ˈsɪblɪŋz?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you have any plans for tonight?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tienes planes para esta noche?</t>
+    <t xml:space="preserve">Yes, I have an older sister and a younger brother.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, tengo una hermana mayor y un hermano menor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ hæv ən ˈoʊldər ˈsɪstər ænd ə ˈjʌŋɡər ˈbrʌðər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any plans for tonight?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tienes algún plan para esta noche?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju hæv ˈɛni plænz fɔr təˈnaɪt?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's your favorite tv show?</t>
+    <t xml:space="preserve">I'm planning to watch a movie and relax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy planeando ver una película y relajarme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈplænɪŋ tu wɑʧ ə ˈmuvi ænd rɪˈlæks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite TV show?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuál es tu programa de televisión favorito?</t>
@@ -108,16 +180,34 @@
     <t xml:space="preserve">wʌts jʊər ˈfeɪvərɪt ˈtiˈvi ʃoʊ?</t>
   </si>
   <si>
-    <t xml:space="preserve">how long have you been together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cuánto tiempo han estado juntos?</t>
+    <t xml:space="preserve">I love watching 'Stranger Things.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me encanta ver 'Stranger Things'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ lʌv ˈwɑʧɪŋ ˈstreɪnʤər θɪŋz.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long have you been together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto tiempo llevan juntos?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ lɔŋ hæv ju bɪn təˈɡɛðər?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you have any children?</t>
+    <t xml:space="preserve">We've been together for about three years now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llevamos juntos unos tres años.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiv bɪn təˈɡɛðər fɔr əˈbaʊt θri jɪrz naʊ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any children?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tienes hijos?</t>
@@ -126,43 +216,88 @@
     <t xml:space="preserve">du ju hæv ˈɛni ˈʧɪldrən?</t>
   </si>
   <si>
-    <t xml:space="preserve">what kind of movies do you like?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿que tipo de películas te gustan?</t>
+    <t xml:space="preserve">No, I don't have children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, no tengo hijos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noʊ, aɪ doʊnt hæv ˈʧɪldrən.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of movies do you like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tipo de películas te gustan?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt kaɪnd ʌv ˈmuviz du ju laɪk?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you speak any other languages?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Hablas alguna otra lengua?</t>
+    <t xml:space="preserve">I enjoy thrillers and documentaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me gustan los thrillers y los documentales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɛnˈʤɔɪ ˈθrɪlərz ænd ˌdɑkjəˈmɛntəriz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you speak any other languages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Hablas otros idiomas?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju spik ˈɛni ˈʌðər ˈlæŋɡwəʤəz?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's your biggest fear?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuál es tu mayor temor?</t>
+    <t xml:space="preserve">Yes, I speak Spanish and a bit of French.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, hablo español y un poco de francés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ spik ˈspænɪʃ ænd ə bɪt ʌv frɛnʧ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your biggest fear?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es tu mayor miedo?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts jʊər ˈbɪɡəst fɪr?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's your dream job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuál es el trabajo de tus sueños?</t>
+    <t xml:space="preserve">I'm quite afraid of heights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me dan mucho miedo las alturas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm kwaɪt əˈfreɪd ʌv haɪts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your dream job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es tu trabajo soñado?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts jʊər drim ʤɑb?</t>
   </si>
   <si>
-    <t xml:space="preserve">where did you buy that dress?</t>
+    <t xml:space="preserve">I'd love to be a travel photographer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me encantaría ser fotógrafa de viajes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪd lʌv tu bi ə ˈtrævəl fəˈtɑɡrəfər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where did you buy that dress?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Dónde compraste ese vestido?</t>
@@ -171,7 +306,16 @@
     <t xml:space="preserve">wɛr dɪd ju baɪ ðæt drɛs?</t>
   </si>
   <si>
-    <t xml:space="preserve">how did you learn to speak english?</t>
+    <t xml:space="preserve">I got it online from an eco-friendly fashion store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo conseguí por Internet en una tienda de moda ecológica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɡɑt ɪt ˈɔnˌlaɪn frʌm ən ˈikoʊ-ˈfrɛndli ˈfæʃən stɔr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you learn to speak English?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cómo aprendiste a hablar inglés?</t>
@@ -180,7 +324,16 @@
     <t xml:space="preserve">haʊ dɪd ju lɜrn tu spik ˈɪŋɡlɪʃ?</t>
   </si>
   <si>
-    <t xml:space="preserve">when's your birthday?</t>
+    <t xml:space="preserve">I learned English mostly through school and by watching movies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprendí inglés principalmente en la escuela y viendo películas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ lɜrnd ˈɪŋɡlɪʃ ˈmoʊstli θru skul ænd baɪ ˈwɑʧɪŋ ˈmuviz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When's your birthday?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuándo es tu cumpleaños?</t>
@@ -189,7 +342,16 @@
     <t xml:space="preserve">wɛnz jʊər ˈbɜrθˌdeɪ?</t>
   </si>
   <si>
-    <t xml:space="preserve">who are your role models?</t>
+    <t xml:space="preserve">My birthday is on April 15th.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi cumpleaños es el 15 de abril.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maɪ ˈbɜrθˌdeɪ ɪz ɑn ˈeɪprəl 15ˈtiˈeɪʧ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who are your role models?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Quiénes son tus modelos a seguir?</t>
@@ -198,16 +360,34 @@
     <t xml:space="preserve">hu ɑr jʊər roʊl ˈmɑdəlz?</t>
   </si>
   <si>
-    <t xml:space="preserve">who do you live with?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿con quien vives?</t>
+    <t xml:space="preserve">My parents and some of my teachers have been my biggest role models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mis padres y algunos de mis profesores han sido mis mayores modelos a seguir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maɪ ˈpɛrənts ænd sʌm ʌv maɪ ˈtiʧərz hæv bɪn maɪ ˈbɪɡəst roʊl ˈmɑdəlz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who do you live with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Con quién vives?</t>
   </si>
   <si>
     <t xml:space="preserve">hu du ju lɪv wɪð?</t>
   </si>
   <si>
-    <t xml:space="preserve">where did you grow up?</t>
+    <t xml:space="preserve">I live with my partner and our pets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivo con mi pareja y nuestras mascotas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ lɪv wɪð maɪ ˈpɑrtnər ænd ˈaʊər pɛts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where did you grow up?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Dónde creciste?</t>
@@ -216,34 +396,52 @@
     <t xml:space="preserve">wɛr dɪd ju ɡroʊ ʌp?</t>
   </si>
   <si>
-    <t xml:space="preserve">how do you deal with she?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cómo tratas con ella?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haʊ du ju dil wɪð ʃi?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how do you deal with stuff like this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cómo lidias con cosas como esta?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haʊ du ju dil wɪð stʌf laɪk ðɪs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">would you like something to drink?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quieres algo de beber?</t>
+    <t xml:space="preserve">I grew up in a small town on the coast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crecí en un pequeño pueblo de la costa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɡru ʌp ɪn ə smɔl taʊn ɑn ðə koʊst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you deal with stress?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo lidias con el estrés?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ du ju dil wɪð strɛs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually go for a run or meditate to manage stress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suelo salir a correr o meditar para controlar el estrés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈjuʒəwəli ɡoʊ fɔr ə rʌn ɔr ˈmɛdəˌteɪt tu ˈmænəʤ strɛs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you like something to drink?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te gustaría beber algo?</t>
   </si>
   <si>
     <t xml:space="preserve">wʊd ju laɪk ˈsʌmθɪŋ tu drɪŋk?</t>
   </si>
   <si>
-    <t xml:space="preserve">what did you do this weekend?</t>
+    <t xml:space="preserve">Yes, a glass of water would be great, thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, un vaso de agua estaría bien, gracias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ə ɡlæs ʌv ˈwɔtər wʊd bi ɡreɪt, θæŋk ju.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What did you do this weekend?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Qué hiciste este fin de semana?</t>
@@ -252,25 +450,52 @@
     <t xml:space="preserve">wɑt dɪd ju du ðɪs ˈwiˌkɛnd?</t>
   </si>
   <si>
-    <t xml:space="preserve">have you been here before?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Has estado aquí antes?</t>
+    <t xml:space="preserve">I went hiking and caught up with some friends over dinner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fui de excursión y me reuní con algunos amigos para cenar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ wɛnt ˈhaɪkɪŋ ænd kɑt ʌp wɪð sʌm frɛndz ˈoʊvər ˈdɪnər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you been here before?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Habías estado aquí antes?</t>
   </si>
   <si>
     <t xml:space="preserve">hæv ju bɪn hir bɪˈfɔr?</t>
   </si>
   <si>
-    <t xml:space="preserve">how was your day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como estuvo tu dia?</t>
+    <t xml:space="preserve">No, this is my first time here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, es mi primera vez aquí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noʊ, ðɪs ɪz maɪ fɜrst taɪm hir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How was your day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo te fue el día?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ wʌz jʊər deɪ?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you want tea or coffee?</t>
+    <t xml:space="preserve">It's been good, thanks for asking!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha sido bueno, ¡gracias por preguntar!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts bɪn ɡʊd, θæŋks fɔr ˈæskɪŋ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want tea or coffee?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Quieres té o café?</t>
@@ -279,25 +504,52 @@
     <t xml:space="preserve">du ju wɑnt ti ɔr ˈkɑfi?</t>
   </si>
   <si>
-    <t xml:space="preserve">can i help you with anything?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿puedo ayudarte con algo?</t>
+    <t xml:space="preserve">I'd love a cup of tea, please.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me encantaría una taza de té, por favor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪd lʌv ə kʌp ʌv ti, pliz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I help you with anything?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedo ayudarte con algo?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn aɪ hɛlp ju wɪð ˈɛniˌθɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">what are you waiting for?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que estas esperando?</t>
+    <t xml:space="preserve">Not right now, but thank you for offering!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ahora mismo, ¡pero gracias por ofrecerte!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nɑt raɪt naʊ, bʌt θæŋk ju fɔr ˈɔfərɪŋ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are you waiting for?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué estás esperando?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt ɑr ju ˈweɪtɪŋ fɔr?</t>
   </si>
   <si>
-    <t xml:space="preserve">what have you been up to?</t>
+    <t xml:space="preserve">I'm waiting for a friend to join me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy esperando a que un amigo se una a mí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈweɪtɪŋ fɔr ə frɛnd tu ʤɔɪn mi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What have you been up to?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Qué has estado haciendo?</t>
@@ -306,43 +558,88 @@
     <t xml:space="preserve">wɑt hæv ju bɪn ʌp tu?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you mind if i join you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Te importa si me uno? o Les importa si me uno?</t>
+    <t xml:space="preserve">I've been really busy with work and planning a vacation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He estado muy ocupado con el trabajo y planeando unas vacaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪv bɪn ˈrɪli ˈbɪzi wɪð wɜrk ænd ˈplænɪŋ ə veɪˈkeɪʃən.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you mind if I join you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te importa si me uno a ti?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju maɪnd ɪf aɪ ʤɔɪn ju?</t>
   </si>
   <si>
-    <t xml:space="preserve">is this seat taken?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Está libre este asiento?</t>
+    <t xml:space="preserve">Not at all, please have a seat!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para nada, ¡toma asiento, por favor!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nɑt æt ɔl, pliz hæv ə sit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this seat taken?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Está ocupado este asiento?</t>
   </si>
   <si>
     <t xml:space="preserve">ɪz ðɪs sit ˈteɪkən?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you from around here?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿eres de por aquí?</t>
+    <t xml:space="preserve">Nope, it's free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, es gratis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noʊp, ɪts fri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you from around here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Eres de por aquí?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju frʌm əˈraʊnd hir?</t>
   </si>
   <si>
-    <t xml:space="preserve">have we met before?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Nos hemos visto antes?</t>
+    <t xml:space="preserve">Yes, I've lived here most of my life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, he vivido aquí la mayor parte de mi vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪv laɪvd hir moʊst ʌv maɪ laɪf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have we met before?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Nos conocíamos antes?</t>
   </si>
   <si>
     <t xml:space="preserve">hæv wi mɛt bɪˈfɔr?</t>
   </si>
   <si>
-    <t xml:space="preserve">who's on the phone?</t>
+    <t xml:space="preserve">I don't think so, but you do look familiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No lo creo, pero me pareces familiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt θɪŋk soʊ, bʌt ju du lʊk fəˈmɪljər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's on the phone?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Quién está al teléfono?</t>
@@ -351,7 +648,16 @@
     <t xml:space="preserve">huz ɑn ðə foʊn?</t>
   </si>
   <si>
-    <t xml:space="preserve">what time will you get there?</t>
+    <t xml:space="preserve">That was my sister calling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Era mi hermana llamando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæt wʌz maɪ ˈsɪstər ˈkɔlɪŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time will you get there?</t>
   </si>
   <si>
     <t xml:space="preserve">¿A qué hora llegarás?</t>
@@ -360,7 +666,16 @@
     <t xml:space="preserve">wɑt taɪm wɪl ju ɡɛt ðɛr?</t>
   </si>
   <si>
-    <t xml:space="preserve">can i do anything to help?</t>
+    <t xml:space="preserve">I should be there by 6 PM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería estar allí a las 6:00 p. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ʃʊd bi ðɛr baɪ 6 ˈpiˈɛm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I do anything to help?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Puedo hacer algo para ayudar?</t>
@@ -369,16 +684,34 @@
     <t xml:space="preserve">kæn aɪ du ˈɛniˌθɪŋ tu hɛlp?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you feeling okey?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">te sientes bien?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɑr ju ˈfilɪŋ ˈoʊki?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when did you arrive?</t>
+    <t xml:space="preserve">If you could help me with these bags, that would be great!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si pudieras ayudarme con estas bolsas, ¡sería genial!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪf ju kʊd hɛlp mi wɪð ðiz bæɡz, ðæt wʊd bi ɡreɪt!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you feeling okay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te sientes bien?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɑr ju ˈfilɪŋ ˌoʊˈkeɪ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, just a bit tired. Thanks for asking!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, solo un poco cansada. ¡Gracias por preguntar!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ʤʌst ə bɪt ˈtaɪərd. θæŋks fɔr ˈæskɪŋ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When did you arrive?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuándo llegaste?</t>
@@ -387,34 +720,70 @@
     <t xml:space="preserve">wɛn dɪd ju əˈraɪv?</t>
   </si>
   <si>
-    <t xml:space="preserve">where are you staying?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Dónde te estás quedadando?</t>
+    <t xml:space="preserve">I got here about an hour ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llegué hace aproximadamente una hora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɡɑt hir əˈbaʊt ən ˈaʊər əˈɡoʊ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are you staying?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde te hospedas?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛr ɑr ju ˈsteɪɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">can you please open the door?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Puedes por favor abrir la puerta?</t>
+    <t xml:space="preserve">I'm staying at the Greenfield Hotel downtown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me hospedo en el Greenfield Hotel del centro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈsteɪɪŋ æt ðə ˈɡrinˌfild hoʊˈtɛl ˈdaʊnˈtaʊn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you please open the door?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedes abrir la puerta, por favor?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn ju pliz ˈoʊpən ðə dɔr?</t>
   </si>
   <si>
-    <t xml:space="preserve">where were you born?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donde naciste?</t>
+    <t xml:space="preserve">Sure, just a moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claro, un momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃʊr, ʤʌst ə ˈmoʊmənt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where were you born?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde naciste?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛr wɜr ju bɔrn?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's your favorite book?</t>
+    <t xml:space="preserve">I was born in Manchester.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nací en Manchester.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ wʌz bɔrn ɪn ˈmænˌʧɛstər.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite book?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuál es tu libro favorito?</t>
@@ -423,97 +792,196 @@
     <t xml:space="preserve">wʌts jʊər ˈfeɪvərɪt bʊk?</t>
   </si>
   <si>
-    <t xml:space="preserve">how's it going?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cómo estás?</t>
+    <t xml:space="preserve">My favorite book is 'To Kill a Mockingbird' by Harper Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi libro favorito es 'Matar a un ruiseñor' de Harper Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maɪ ˈfeɪvərɪt bʊk ɪz tu kɪl ə ˈmɑkɪŋˌbɜrd baɪ ˈhɑrpər li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How's it going?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo te va?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊz ɪt ˈɡoʊɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">where are you from?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿de dónde eres?</t>
+    <t xml:space="preserve">It's going well, thanks for asking!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Va bien, ¡gracias por preguntar!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ˈɡoʊɪŋ wɛl, θæŋks fɔr ˈæskɪŋ!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are you from?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿De dónde eres?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛr ɑr ju frʌm?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you ready?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿estás listo?</t>
+    <t xml:space="preserve">I'm from a small town near the mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy de un pequeño pueblo cerca de las montañas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm frʌm ə smɔl taʊn nɪr ðə ˈmaʊntənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you ready?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Estás listo?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju ˈrɛdi?</t>
   </si>
   <si>
-    <t xml:space="preserve">how do you spell that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cómo se deletrea eso?</t>
+    <t xml:space="preserve">Yes, all set!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Sí, todo listo!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ɔl sɛt!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you spell that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo se escribe eso?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ du ju spɛl ðæt?</t>
   </si>
   <si>
-    <t xml:space="preserve">how's your job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Como va tu trabajo?</t>
+    <t xml:space="preserve">That's spelled T-H-A-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se escribe T-E-L-A-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts spɛld ti-eɪʧ-ə-ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How's your job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo va tu trabajo?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊz jʊər ʤɑb?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you busy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿estás ocupado?</t>
+    <t xml:space="preserve">It's challenging but rewarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es desafiante pero gratificante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ˈʧælənʤɪŋ bʌt rɪˈwɔrdɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you busy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Estás ocupado?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju ˈbɪzi?</t>
   </si>
   <si>
-    <t xml:space="preserve">how's your family?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿como esta tu familia?</t>
+    <t xml:space="preserve">A bit, but I've got time to chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un poco, pero tengo tiempo para charlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ə bɪt, bʌt aɪv ɡɑt taɪm tu ʧæt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How's your family?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo está tu familia?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊz jʊər ˈfæməli?</t>
   </si>
   <si>
-    <t xml:space="preserve">who's this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿quién es éste?</t>
+    <t xml:space="preserve">Everyone is doing well, thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos están bien, gracias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɛvriˌwʌn ɪz ˈduɪŋ wɛl, θæŋk ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quién es?</t>
   </si>
   <si>
     <t xml:space="preserve">huz ðɪs?</t>
   </si>
   <si>
-    <t xml:space="preserve">is this your wife?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Es esta tu esposa?</t>
+    <t xml:space="preserve">This is my friend, John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este es mi amigo, John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɪs ɪz maɪ frɛnd, ʤɑn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this your wife?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Es tu esposa?</t>
   </si>
   <si>
     <t xml:space="preserve">ɪz ðɪs jʊər waɪf?</t>
   </si>
   <si>
-    <t xml:space="preserve">where's my brother?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿dónde está mi hermano?</t>
+    <t xml:space="preserve">Yes, this is my wife, Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, esta es mi esposa, Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ðɪs ɪz maɪ waɪf, ˈɛmɪli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where's my brother?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde está mi hermano?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛrz maɪ ˈbrʌðər?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you live around here?</t>
+    <t xml:space="preserve">He was here a minute ago, I think he stepped outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estuvo aquí hace un minuto, creo que salió</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi wʌz hir ə ˈmɪnət əˈɡoʊ, aɪ θɪŋk hi stɛpt ˈaʊtˈsaɪd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you live around here?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Vives por aquí?</t>
@@ -522,7 +990,16 @@
     <t xml:space="preserve">du ju lɪv əˈraʊnd hir?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you like my hair?</t>
+    <t xml:space="preserve">Yes, just a few blocks away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, a solo unas cuadras de distancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ʤʌst ə fju blɑks əˈweɪ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you like my hair?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Te gusta mi cabello?</t>
@@ -531,154 +1008,319 @@
     <t xml:space="preserve">du ju laɪk maɪ hɛr?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you like my new outfit?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Te gusta mi nuevo outfit?</t>
+    <t xml:space="preserve">Yes, it looks great!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, ¡luce genial!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ɪt lʊks ɡreɪt!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you like my new outfit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te gusta mi nuevo atuendo?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju laɪk maɪ nu ˈaʊtˌfɪt?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you have any questions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene usted alguna pregunta?</t>
+    <t xml:space="preserve">Absolutely, it suits you really well!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutamente, ¡te queda muy bien!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌæbsəˈlutli, ɪt suts ju ˈrɪli wɛl!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any questions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tienes alguna pregunta?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju hæv ˈɛni ˈkwɛsʧənz?</t>
   </si>
   <si>
-    <t xml:space="preserve">how often do you come here?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Qué tan seguido vienes aquí?</t>
+    <t xml:space="preserve">Not at the moment, but I'll let you know if I think of any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No por el momento, pero te avisaré si se me ocurre alguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nɑt æt ðə ˈmoʊmənt, bʌt aɪl lɛt ju noʊ ɪf aɪ θɪŋk ʌv ˈɛni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you come here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Con qué frecuencia vienes aquí?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ ˈɔfən du ju kʌm hir?</t>
   </si>
   <si>
-    <t xml:space="preserve">how often do you play football?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Con que frecuencia juegas al fútbol?</t>
+    <t xml:space="preserve">Pretty often, it's one of my favorite spots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy a menudo, es uno de mis lugares favoritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈprɪti ˈɔfən, ɪts wʌn ʌv maɪ ˈfeɪvərɪt spɑts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you play football?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Con qué frecuencia juegas al fútbol?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ ˈɔfən du ju pleɪ ˈfʊtˌbɔl?</t>
   </si>
   <si>
-    <t xml:space="preserve">what do you do?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿a qué te dedicas?</t>
+    <t xml:space="preserve">I play every weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juego todos los fines de semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ pleɪ ˈɛvəri ˈwiˌkɛnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué haces?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt du ju du?</t>
   </si>
   <si>
-    <t xml:space="preserve">what do you do in your free time?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué haces en tu tiempo libre?</t>
+    <t xml:space="preserve">I'm a graphic designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy diseñador gráfico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ə ˈɡræfɪk dɪˈzaɪnər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you do in your free time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué haces en tu tiempo libre?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt du ju du ɪn jʊər fri taɪm?</t>
   </si>
   <si>
-    <t xml:space="preserve">what time is it now?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué hora es en este momento?</t>
+    <t xml:space="preserve">I enjoy hiking and playing the guitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me gusta hacer caminatas y tocar la guitarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɛnˈʤɔɪ ˈhaɪkɪŋ ænd ˈpleɪɪŋ ðə ɡɪˈtɑr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time is it now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué hora es ahora?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt taɪm ɪz ɪt naʊ?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's the weather like?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Como está el clima?</t>
+    <t xml:space="preserve">It's about 3:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son aproximadamente las 3:30 p. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts əˈbaʊt 3:30 ˈpiˈɛm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the weather like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo está el clima?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts ðə ˈwɛðər laɪk?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's the weather like down there this time of year?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cómo es el clima allí en esta época del año?</t>
+    <t xml:space="preserve">It's sunny and warm today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy está soleado y cálido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ˈsʌni ænd wɔrm təˈdeɪ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the weather like down there this time of year?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo está el clima allí en esta época del año?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts ðə ˈwɛðər laɪk daʊn ðɛr ðɪs taɪm ʌv jɪr?</t>
   </si>
   <si>
-    <t xml:space="preserve">what are you doing these days?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué haces estos días?</t>
+    <t xml:space="preserve">It's usually quite cold and snowy this season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suele hacer bastante frío y nevando en esta temporada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ˈjuʒəwəli kwaɪt koʊld ænd ˈsnoʊi ðɪs ˈsizən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are you doing these days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué estás haciendo estos días?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt ɑr ju ˈduɪŋ ðiz deɪz?</t>
   </si>
   <si>
-    <t xml:space="preserve">what would you like to drink?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Qué le gustaría beber?</t>
+    <t xml:space="preserve">I've been working on some new projects at work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He estado trabajando en algunos proyectos nuevos en el trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪv bɪn ˈwɜrkɪŋ ɑn sʌm nu ˈprɑʤɛkts æt wɜrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would you like to drink?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué te gustaría beber?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt wʊd ju laɪk tu drɪŋk?</t>
   </si>
   <si>
-    <t xml:space="preserve">how you doing?</t>
+    <t xml:space="preserve">I'll have a coffee, please</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomaré un café, por favor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪl hæv ə ˈkɑfi, pliz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How you doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo estás?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ ju ˈduɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's going on?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué está sucediendo?</t>
+    <t xml:space="preserve">I'm good, how about you?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy bien, ¿y tú?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ɡʊd, haʊ əˈbaʊt ju?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's going on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué pasa?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts ˈɡoʊɪŋ ɑn?</t>
   </si>
   <si>
-    <t xml:space="preserve">how's your day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿como esta tu dia?</t>
+    <t xml:space="preserve">Just catching up on some work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo me estoy poniendo al día con algo de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʤʌst ˈkæʧɪŋ ʌp ɑn sʌm wɜrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How's your day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo va tu día?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊz jʊər deɪ?</t>
   </si>
   <si>
-    <t xml:space="preserve">how's your day going?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿como va tu dia?</t>
+    <t xml:space="preserve">It's been pretty productive so far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha sido bastante productivo hasta ahora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts bɪn ˈprɪti prəˈdʌktɪv soʊ fɑr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How's your day going?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊz jʊər deɪ ˈɡoʊɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's new?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué hay de nuevo?</t>
+    <t xml:space="preserve">Going great, thanks!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Va muy bien, gracias!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɡoʊɪŋ ɡreɪt, θæŋks!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's new?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué hay de nuevo?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts nu?</t>
   </si>
   <si>
-    <t xml:space="preserve">what do you do for a living?</t>
+    <t xml:space="preserve">Not much, just the usual routine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No mucho, solo la rutina habitual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nɑt mʌʧ, ʤʌst ðə ˈjuʒəwəl ruˈtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you do for a living?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿A qué te dedicas?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt du ju du fɔr ə ˈlɪvɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">where do you work?</t>
+    <t xml:space="preserve">I work as an accountant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo como contador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ wɜrk æz ən əˈkaʊntənt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where do you work?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Dónde trabajas?</t>
@@ -687,16 +1329,34 @@
     <t xml:space="preserve">wɛr du ju wɜrk?</t>
   </si>
   <si>
-    <t xml:space="preserve">can i help you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿puedo ayudarle?</t>
+    <t xml:space="preserve">I work at a tech startup downtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo en una empresa tecnológica emergente en el centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ wɜrk æt ə tɛk ˈstɑrˌtʌp ˈdaʊnˈtaʊn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I help you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedo ayudarte?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn aɪ hɛlp ju?</t>
   </si>
   <si>
-    <t xml:space="preserve">can i try it on?</t>
+    <t xml:space="preserve">I appreciate it, but I think I've got it covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te lo agradezco, pero creo que ya lo tengo todo cubierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ əˈpriʃiˌeɪt ɪt, bʌt aɪ θɪŋk aɪv ɡɑt ɪt ˈkʌvərd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I try it on?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Puedo probármelo?</t>
@@ -705,7 +1365,16 @@
     <t xml:space="preserve">kæn aɪ traɪ ɪt ɑn?</t>
   </si>
   <si>
-    <t xml:space="preserve">how much is it?</t>
+    <t xml:space="preserve">Sure, the fitting rooms are over there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro, los probadores están allí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃʊr, ðə ˈfɪtɪŋ rumz ɑr ˈoʊvər ðɛr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much is it?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuánto cuesta?</t>
@@ -714,88 +1383,178 @@
     <t xml:space="preserve">haʊ mʌʧ ɪz ɪt?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you ready to order?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estan listos para ordenar?</t>
+    <t xml:space="preserve">That item is $45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ese artículo cuesta $45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæt ˈaɪtəm ɪz $45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you ready to order?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Estás listo para ordenar?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju ˈrɛdi tu ˈɔrdər?</t>
   </si>
   <si>
-    <t xml:space="preserve">is everything ready?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esta todo listo?</t>
+    <t xml:space="preserve">Yes, I'll have the steak, please</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, tomaré el bistec, por favor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪl hæv ðə steɪk, pliz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is everything ready?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Está todo listo?</t>
   </si>
   <si>
     <t xml:space="preserve">ɪz ˈɛvriˌθɪŋ ˈrɛdi?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's the matter?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cual es el problema?</t>
+    <t xml:space="preserve">Just about, we're waiting on one more thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casi, estamos esperando una cosa más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʤʌst əˈbaʊt, wir ˈweɪtɪŋ ɑn wʌn mɔr θɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the matter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué sucede?</t>
   </si>
   <si>
     <t xml:space="preserve">wʌts ðə ˈmætər?</t>
   </si>
   <si>
-    <t xml:space="preserve">what are you hobbies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuales son tus pasatiempos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wɑt ɑr you ˈhɑbiz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what do you think about?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Qué piensa usted acerca de?</t>
+    <t xml:space="preserve">I'm just a little stressed with work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy un poco estresado con el trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ʤʌst ə ˈlɪtəl strɛst wɪð wɜrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are your hobbies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son tus pasatiempos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt ɑr jʊər ˈhɑbiz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy photography and cycling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disfruto de la fotografía y el ciclismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɛnˈʤɔɪ fəˈtɑɡrəfi ænd ˈsaɪkəlɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think about?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿En qué piensas?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt du ju θɪŋk əˈbaʊt?</t>
   </si>
   <si>
-    <t xml:space="preserve">what do you think about college?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Qué opinas de la universidad?</t>
+    <t xml:space="preserve">I often think about future travel plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A menudo pienso en planes de viajes futuros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈɔfən θɪŋk əˈbaʊt ˈfjuʧər ˈtrævəl plænz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think about college?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué piensas de la universidad?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt du ju θɪŋk əˈbaʊt ˈkɑlɪʤ?</t>
   </si>
   <si>
-    <t xml:space="preserve">have you been waiting long?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has estado esperando mucho?</t>
+    <t xml:space="preserve">It's a valuable experience for both education and personal growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es una experiencia valiosa tanto para la educación como para el crecimiento personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ə ˈvæljəbəl ɪkˈspɪriəns fɔr boʊθ ˌɛʤəˈkeɪʃən ænd ˈpɜrsɪnɪl ɡroʊθ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you been waiting long?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Has estado esperando mucho tiempo?</t>
   </si>
   <si>
     <t xml:space="preserve">hæv ju bɪn ˈweɪtɪŋ lɔŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">what does he look like?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como es el?</t>
+    <t xml:space="preserve">Not too long, about five minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No demasiado, unos cinco minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nɑt tu lɔŋ, əˈbaʊt faɪv ˈmɪnəts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does he look like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo luce?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt dʌz hi lʊk laɪk?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you understand?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enteindes?</t>
+    <t xml:space="preserve">He's tall, with short brown hair and glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es alto, con cabello castaño corto y anteojos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiz tɔl, wɪð ʃɔrt braʊn hɛr ænd ˈɡlæsəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you understand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Entiendes?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju ˌʌndərˈstænd?</t>
   </si>
   <si>
-    <t xml:space="preserve">what's on your mind?</t>
+    <t xml:space="preserve">Yes, I understand completely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, entiendo completamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ ˌʌndərˈstænd kəmˈplitli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's on your mind?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Qué tienes en mente?</t>
@@ -804,43 +1563,88 @@
     <t xml:space="preserve">wʌts ɑn jʊər maɪnd?</t>
   </si>
   <si>
-    <t xml:space="preserve">where have you been?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿dónde has estado?</t>
+    <t xml:space="preserve">I'm just thinking about my weekend plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo estoy pensando en mis planes para el fin de semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ʤʌst ˈθɪŋkɪŋ əˈbaʊt maɪ ˈwiˌkɛnd plænz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where have you been?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde has estado?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛr hæv ju bɪn?</t>
   </si>
   <si>
-    <t xml:space="preserve">where you at?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donde estas?</t>
+    <t xml:space="preserve">I was on a business trip last week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La semana pasada estuve en un viaje de negocios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ wʌz ɑn ə ˈbɪznəs trɪp læst wik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where you at?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde estás?</t>
   </si>
   <si>
     <t xml:space="preserve">wɛr ju æt?</t>
   </si>
   <si>
-    <t xml:space="preserve">how are you feeling?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cómo te sientes?</t>
+    <t xml:space="preserve">I'm at the café on 5th street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy en el café de la calle 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm æt ðə kəˈfeɪ ɑn 5ˈtiˈeɪʧ strit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are you feeling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo te sientes?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ ɑr ju ˈfilɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you coming?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿vienes?</t>
+    <t xml:space="preserve">I'm feeling pretty good today, thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me siento muy bien hoy, ¡gracias!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈfilɪŋ ˈprɪti ɡʊd təˈdeɪ, θæŋks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you coming?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Vienes?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju ˈkʌmɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">may i go?</t>
+    <t xml:space="preserve">Yes, I'll be there in a few minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, estaré allí en unos minutos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪl bi ðɛr ɪn ə fju ˈmɪnəts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May I go?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Puedo irme?</t>
@@ -849,43 +1653,88 @@
     <t xml:space="preserve">meɪ aɪ ɡoʊ?</t>
   </si>
   <si>
-    <t xml:space="preserve">who's coming?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Quién esta viniendo?</t>
+    <t xml:space="preserve">Sure, you can go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claro, puedes ir tú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃʊr, ju kæn ɡoʊ əˈhɛd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's coming?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quién viene?</t>
   </si>
   <si>
     <t xml:space="preserve">huz ˈkʌmɪŋ?</t>
   </si>
   <si>
-    <t xml:space="preserve">what was the reason?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cuál fue la razón?</t>
+    <t xml:space="preserve">Tom, Sara, and a few others from the office.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom, Sara y algunos otros de la oficina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tɑm, ˈsɛrə, ænd ə fju ˈʌðərz frʌm ði ˈɔfəs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the reason?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál fue el motivo?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt wʌz ðə ˈrizən?</t>
   </si>
   <si>
-    <t xml:space="preserve">what about you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué pasa contigo?</t>
+    <t xml:space="preserve">The main reason was to streamline our workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El motivo principal fue optimizar nuestro flujo de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðə meɪn ˈrizən wʌz tu ˈstrimˌlaɪn ˈaʊər workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Y tú?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt əˈbaʊt ju?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you there?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿está ahí?</t>
+    <t xml:space="preserve">I'm doing well, thanks for asking!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy bien, ¡gracias por preguntar!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈduɪŋ wɛl, θæŋks fɔr ˈæskɪŋ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Estás ahí?</t>
   </si>
   <si>
     <t xml:space="preserve">ɑr ju ðɛr?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you alright?</t>
+    <t xml:space="preserve">Yes, I'm here. Can you hear me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, estoy aquí. ¿Me escuchas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪm hir. kæn ju hir mi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you alright?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Estás bien?</t>
@@ -894,52 +1743,106 @@
     <t xml:space="preserve">ɑr ju ˌɔlˈraɪt?</t>
   </si>
   <si>
-    <t xml:space="preserve">how long has it been?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cuánto tiempo ha pasado?</t>
+    <t xml:space="preserve">Yes, I'm fine, just a bit tired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, estoy bien, solo un poco cansado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪm faɪn, ʤʌst ə bɪt ˈtaɪərd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long has it been?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto tiempo ha pasado?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ lɔŋ hæz ɪt bɪn?</t>
   </si>
   <si>
-    <t xml:space="preserve">which one?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cuál?</t>
+    <t xml:space="preserve">It's been about two years since we last met.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han pasado unos dos años desde la última vez que nos vimos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts bɪn əˈbaʊt tu jɪrz sɪns wi læst mɛt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál?</t>
   </si>
   <si>
     <t xml:space="preserve">wɪʧ wʌn?</t>
   </si>
   <si>
-    <t xml:space="preserve">what did you say?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿qué dijiste?</t>
+    <t xml:space="preserve">The blue one on the left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El azul de la izquierda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðə blu wʌn ɑn ðə lɛft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What did you say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué dijiste?</t>
   </si>
   <si>
     <t xml:space="preserve">wɑt dɪd ju seɪ?</t>
   </si>
   <si>
-    <t xml:space="preserve">how long does it take?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuánto tiempo se tarda?</t>
+    <t xml:space="preserve">I asked if you're free to meet tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te pregunté si estás libre para reunirnos mañana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ æskt ɪf jʊr fri tu mit təˈmɑˌroʊ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long does it take?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto tiempo lleva?</t>
   </si>
   <si>
     <t xml:space="preserve">haʊ lɔŋ dʌz ɪt teɪk?</t>
   </si>
   <si>
-    <t xml:space="preserve">will you join me?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Me acompañaras?</t>
+    <t xml:space="preserve">It usually takes about 30 minutes by car.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalmente se tarda unos 30 minutos en coche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt ˈjuʒəwəli teɪks əˈbaʊt 30 ˈmɪnəts baɪ kɑr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will you join me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Me acompañas?</t>
   </si>
   <si>
     <t xml:space="preserve">wɪl ju ʤɔɪn mi?</t>
   </si>
   <si>
-    <t xml:space="preserve">are you free tomorrow night?</t>
+    <t xml:space="preserve">I'd love to, what time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me encantaría, ¿a qué hora?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪd lʌv tu, wɑt taɪm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you free tomorrow night?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Estás libre mañana por la noche?</t>
@@ -948,22 +1851,49 @@
     <t xml:space="preserve">ɑr ju fri təˈmɑˌroʊ naɪt?</t>
   </si>
   <si>
-    <t xml:space="preserve">can you give me a hand?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Me puede dar una mano?</t>
+    <t xml:space="preserve">Yes, I have no plans yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, todavía no tengo planes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ hæv noʊ plænz jɛt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you give me a hand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Me puedes echar una mano?</t>
   </si>
   <si>
     <t xml:space="preserve">kæn ju ɡɪv mi ə hænd?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you have a reservation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene una reserva?</t>
+    <t xml:space="preserve">Of course, what do you need help with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por supuesto, ¿en qué necesitas ayuda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʌv kɔrs, wɑt du ju nid hɛlp wɪð?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a reservation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tienes alguna reserva?</t>
   </si>
   <si>
     <t xml:space="preserve">du ju hæv ə ˌrɛzərˈveɪʃən?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it's under the name Smith.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sí, está a nombre de Smith.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ɪts ˈʌndər ðə neɪm smɪθ.</t>
   </si>
 </sst>
 </file>
@@ -1038,16 +1968,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1178,18 +2104,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,22 +2128,19 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,9 +2153,6 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1244,8 +2164,8 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,9 +2178,6 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1272,8 +2189,8 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,534 +2203,994 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>3</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1832,642 +3209,1143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>264</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>270</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>276</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>282</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>288</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>294</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
+        <v>306</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
+        <v>312</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
+        <v>318</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
+        <v>324</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
+        <v>330</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>215</v>
+        <v>342</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>3</v>
+        <v>348</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>3</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>3</v>
+        <v>354</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>3</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>3</v>
+        <v>360</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>3</v>
+        <v>366</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
+        <v>372</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>3</v>
+        <v>378</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>3</v>
+        <v>384</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>257</v>
+        <v>385</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
+        <v>390</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
+        <v>392</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>3</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2486,242 +4364,418 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>528</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>532</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>533</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>535</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>537</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>538</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>539</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>541</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>543</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>544</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>545</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>547</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>549</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>550</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>551</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>552</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>553</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>293</v>
+        <v>555</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>556</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>557</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>559</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>561</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>300</v>
+        <v>562</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>563</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>564</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>567</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>568</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>569</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>308</v>
+        <v>570</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>311</v>
+      <c r="A16" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>312</v>
+        <v>574</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
+        <v>575</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
